--- a/PTBR/Lang/PTBR/Game/Obj.xlsx
+++ b/PTBR/Lang/PTBR/Game/Obj.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEB109A-8138-4DB1-81F7-472A69DF3790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ADBF9C-4CC7-4CB5-B6C3-4B5DF2DAFCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="3600" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Obj!$A$2:$H$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Obj!$A$2:$H$140</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="558">
   <si>
     <t>id</t>
   </si>
@@ -1517,6 +1517,186 @@
   </si>
   <si>
     <t>Telhado 9</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>EA 23.121</t>
+  </si>
+  <si>
+    <t>roof10</t>
+  </si>
+  <si>
+    <t>屋根10</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>green grass</t>
+  </si>
+  <si>
+    <t>緑の草</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>EA 23.123</t>
+  </si>
+  <si>
+    <t>roof11</t>
+  </si>
+  <si>
+    <t>屋根11</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>EA 23.124</t>
+  </si>
+  <si>
+    <t>roof12</t>
+  </si>
+  <si>
+    <t>屋根12</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>EA 23.126</t>
+  </si>
+  <si>
+    <t>roof13</t>
+  </si>
+  <si>
+    <t>屋根13</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>EA 23.129</t>
+  </si>
+  <si>
+    <t>roof14</t>
+  </si>
+  <si>
+    <t>屋根14</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>roof15</t>
+  </si>
+  <si>
+    <t>屋根15</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>EA 23.130</t>
+  </si>
+  <si>
+    <t>roof16</t>
+  </si>
+  <si>
+    <t>屋根16</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>roof17</t>
+  </si>
+  <si>
+    <t>屋根17</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>neon line</t>
+  </si>
+  <si>
+    <t>ネオンライン</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>EA 23.138</t>
+  </si>
+  <si>
+    <t>珊瑚礁</t>
+  </si>
+  <si>
+    <t>coral reef</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>deep seaweed</t>
+  </si>
+  <si>
+    <t>深海藻</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>EA 23.142</t>
+  </si>
+  <si>
+    <t>cabocchi</t>
+  </si>
+  <si>
+    <t>カボチ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado 10  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grama Verde  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado 11  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado 12  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado 13  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado 14  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado 15  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado 16  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado 17  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linha Neon  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recife De Coral  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alga Marinha Profunda  </t>
+  </si>
+  <si>
+    <t>Cabocchi</t>
   </si>
 </sst>
 </file>
@@ -1894,11 +2074,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="2" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,2150 +2118,2371 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C7" t="s">
-        <v>460</v>
+        <v>392</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>296</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>353</v>
       </c>
       <c r="C8" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C9" t="s">
-        <v>448</v>
+        <v>392</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>353</v>
       </c>
       <c r="C10" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>353</v>
       </c>
       <c r="C11" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>353</v>
       </c>
       <c r="C12" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>353</v>
       </c>
       <c r="C13" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>334</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="C14" t="s">
-        <v>473</v>
+        <v>383</v>
       </c>
       <c r="D14" t="s">
-        <v>335</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>399</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>337</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C16" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>339</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>353</v>
       </c>
       <c r="C17" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
         <v>353</v>
       </c>
       <c r="C18" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C19" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="D19" t="s">
-        <v>273</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>274</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
         <v>353</v>
       </c>
       <c r="C20" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
         <v>353</v>
       </c>
       <c r="C21" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
         <v>353</v>
       </c>
       <c r="C22" t="s">
-        <v>395</v>
+        <v>481</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>353</v>
       </c>
       <c r="C23" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C24" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>291</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C25" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="D25" t="s">
-        <v>292</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>316</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C26" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="D26" t="s">
-        <v>317</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>318</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
         <v>353</v>
       </c>
       <c r="C27" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D27" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
         <v>353</v>
       </c>
       <c r="C28" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C29" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="D29" t="s">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>268</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
         <v>353</v>
       </c>
       <c r="C30" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>344</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="C31" t="s">
-        <v>475</v>
+        <v>410</v>
       </c>
       <c r="D31" t="s">
-        <v>345</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>346</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
         <v>353</v>
       </c>
       <c r="C32" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>353</v>
       </c>
       <c r="C33" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C34" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
         <v>353</v>
       </c>
       <c r="C35" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="B36" t="s">
         <v>353</v>
       </c>
       <c r="C36" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s">
         <v>353</v>
       </c>
       <c r="C37" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="D37" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="B38" t="s">
         <v>353</v>
       </c>
       <c r="C38" t="s">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="D38" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>226</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C39" t="s">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
         <v>353</v>
       </c>
       <c r="C40" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C41" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s">
         <v>353</v>
       </c>
       <c r="C42" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C43" t="s">
-        <v>406</v>
+        <v>488</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C44" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C45" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C46" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c r="B47" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="C47" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="B48" t="s">
         <v>353</v>
       </c>
       <c r="C48" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s">
         <v>353</v>
       </c>
       <c r="C49" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C50" t="s">
-        <v>453</v>
+        <v>387</v>
       </c>
       <c r="D50" t="s">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="E50" t="s">
-        <v>271</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>310</v>
+        <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C51" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="D51" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="E51" t="s">
-        <v>312</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
         <v>353</v>
       </c>
       <c r="C52" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="E52" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="B53" t="s">
         <v>353</v>
       </c>
       <c r="C53" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s">
         <v>353</v>
       </c>
       <c r="C54" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="B55" t="s">
         <v>353</v>
       </c>
       <c r="C55" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="E55" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="B56" t="s">
         <v>353</v>
       </c>
       <c r="C56" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
         <v>353</v>
       </c>
       <c r="C57" t="s">
-        <v>384</v>
+        <v>483</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="B58" t="s">
         <v>353</v>
       </c>
       <c r="C58" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>340</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="C59" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="B60" t="s">
         <v>353</v>
       </c>
       <c r="C60" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B61" t="s">
         <v>353</v>
       </c>
       <c r="C61" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="D61" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E61" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="B62" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C62" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="D62" t="s">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="E62" t="s">
-        <v>315</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="B63" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C63" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D63" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="E63" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C64" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="D64" t="s">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="E64" t="s">
-        <v>330</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C65" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="D65" t="s">
-        <v>305</v>
+        <v>225</v>
       </c>
       <c r="E65" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>331</v>
+        <v>227</v>
       </c>
       <c r="B66" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="C66" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="D66" t="s">
-        <v>332</v>
+        <v>228</v>
       </c>
       <c r="E66" t="s">
-        <v>333</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="B67" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C67" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="D67" t="s">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="E67" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="B68" t="s">
         <v>353</v>
       </c>
       <c r="C68" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="E68" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
         <v>353</v>
       </c>
       <c r="C69" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="D69" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="B70" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C70" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="E70" t="s">
-        <v>130</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
         <v>353</v>
       </c>
       <c r="C71" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C72" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="D72" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="E72" t="s">
-        <v>321</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C73" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D73" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E73" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>247</v>
       </c>
       <c r="B74" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C74" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E74" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C75" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c r="B76" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C76" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="D76" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="B77" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C77" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D77" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="B78" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C78" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D78" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="B79" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C79" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D79" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
-        <v>268</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C80" t="s">
-        <v>401</v>
+        <v>487</v>
       </c>
       <c r="D80" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E80" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C81" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>248</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C82" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="D82" t="s">
-        <v>249</v>
+        <v>66</v>
       </c>
       <c r="E82" t="s">
-        <v>250</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B83" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C83" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="E83" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="B84" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C84" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="E84" t="s">
-        <v>183</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="B85" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C85" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="D85" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="E85" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>157</v>
+        <v>263</v>
       </c>
       <c r="B86" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C86" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="D86" t="s">
-        <v>158</v>
+        <v>264</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="B87" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C87" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D87" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="E87" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B88" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C88" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D88" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E88" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B89" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C89" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D89" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E89" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B90" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C90" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D90" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="E90" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>284</v>
       </c>
       <c r="B91" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C91" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="D91" t="s">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="E91" t="s">
-        <v>141</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>287</v>
       </c>
       <c r="B92" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C92" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D92" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="B93" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C93" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D93" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E93" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>291</v>
       </c>
       <c r="B94" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C94" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="D94" t="s">
-        <v>173</v>
+        <v>292</v>
       </c>
       <c r="E94" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C95" t="s">
-        <v>485</v>
+        <v>401</v>
       </c>
       <c r="D95" t="s">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="E95" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B96" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C96" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D96" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="E96" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>279</v>
       </c>
       <c r="B97" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C97" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D97" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E97" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="B98" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C98" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="D98" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="B99" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C99" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D99" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="E99" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="B100" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="C100" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="D100" t="s">
-        <v>120</v>
+        <v>298</v>
       </c>
       <c r="E100" t="s">
-        <v>121</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B101" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="C101" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
       <c r="D101" t="s">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="E101" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="B102" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C102" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="D102" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="E102" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B103" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C103" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D103" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="E103" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>160</v>
+        <v>307</v>
       </c>
       <c r="B104" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C104" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="D104" t="s">
-        <v>161</v>
+        <v>308</v>
       </c>
       <c r="E104" t="s">
-        <v>162</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>227</v>
+        <v>301</v>
       </c>
       <c r="B105" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C105" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="D105" t="s">
-        <v>228</v>
+        <v>302</v>
       </c>
       <c r="E105" t="s">
-        <v>229</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="B106" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C106" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D106" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E106" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>33</v>
+        <v>313</v>
       </c>
       <c r="B107" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="C107" t="s">
-        <v>389</v>
+        <v>466</v>
       </c>
       <c r="D107" t="s">
-        <v>34</v>
+        <v>314</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c r="B108" t="s">
-        <v>489</v>
+        <v>359</v>
       </c>
       <c r="C108" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="D108" t="s">
-        <v>490</v>
+        <v>317</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="B109" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C109" t="s">
-        <v>399</v>
+        <v>468</v>
       </c>
       <c r="D109" t="s">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="E109" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="B110" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="C110" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D110" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="E110" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>281</v>
+        <v>148</v>
       </c>
       <c r="B111" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C111" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="D111" t="s">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="E111" t="s">
-        <v>283</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>340</v>
       </c>
       <c r="B112" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="C112" t="s">
-        <v>477</v>
+        <v>385</v>
       </c>
       <c r="D112" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E112" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="B113" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="C113" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D113" t="s">
-        <v>84</v>
+        <v>342</v>
       </c>
       <c r="E113" t="s">
-        <v>85</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>86</v>
+        <v>344</v>
       </c>
       <c r="B114" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="C114" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D114" t="s">
-        <v>87</v>
+        <v>345</v>
       </c>
       <c r="E114" t="s">
-        <v>88</v>
+        <v>346</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>89</v>
+        <v>347</v>
       </c>
       <c r="B115" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="C115" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D115" t="s">
-        <v>90</v>
+        <v>348</v>
       </c>
       <c r="E115" t="s">
-        <v>91</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>92</v>
+        <v>350</v>
       </c>
       <c r="B116" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="C116" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D116" t="s">
-        <v>93</v>
+        <v>351</v>
       </c>
       <c r="E116" t="s">
-        <v>94</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>95</v>
+        <v>493</v>
       </c>
       <c r="B117" t="s">
-        <v>353</v>
+        <v>494</v>
       </c>
       <c r="C117" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="D117" t="s">
-        <v>96</v>
+        <v>495</v>
       </c>
       <c r="E117" t="s">
-        <v>97</v>
+        <v>496</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B118" t="s">
-        <v>353</v>
+        <v>489</v>
       </c>
       <c r="C118" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D118" t="s">
-        <v>96</v>
+        <v>490</v>
       </c>
       <c r="E118" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="B119" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C119" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="D119" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="E119" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B120" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C120" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="D120" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="E120" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>502</v>
       </c>
       <c r="B121" t="s">
-        <v>353</v>
+        <v>499</v>
       </c>
       <c r="C121" t="s">
-        <v>409</v>
+        <v>546</v>
       </c>
       <c r="D121" t="s">
-        <v>117</v>
+        <v>503</v>
       </c>
       <c r="E121" t="s">
-        <v>118</v>
+        <v>504</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>215</v>
+        <v>505</v>
       </c>
       <c r="B122" t="s">
-        <v>353</v>
+        <v>506</v>
       </c>
       <c r="C122" t="s">
-        <v>436</v>
+        <v>547</v>
       </c>
       <c r="D122" t="s">
-        <v>216</v>
+        <v>507</v>
       </c>
       <c r="E122" t="s">
-        <v>217</v>
+        <v>508</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>509</v>
       </c>
       <c r="B123" t="s">
-        <v>353</v>
+        <v>510</v>
       </c>
       <c r="C123" t="s">
-        <v>411</v>
+        <v>548</v>
       </c>
       <c r="D123" t="s">
-        <v>123</v>
+        <v>511</v>
       </c>
       <c r="E123" t="s">
-        <v>124</v>
+        <v>512</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>110</v>
+        <v>513</v>
       </c>
       <c r="B124" t="s">
-        <v>353</v>
+        <v>514</v>
       </c>
       <c r="C124" t="s">
-        <v>407</v>
+        <v>549</v>
       </c>
       <c r="D124" t="s">
-        <v>111</v>
+        <v>515</v>
       </c>
       <c r="E124" t="s">
-        <v>112</v>
+        <v>516</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>98</v>
+        <v>517</v>
       </c>
       <c r="B125" t="s">
-        <v>353</v>
+        <v>518</v>
       </c>
       <c r="C125" t="s">
-        <v>403</v>
+        <v>550</v>
       </c>
       <c r="D125" t="s">
-        <v>99</v>
+        <v>519</v>
       </c>
       <c r="E125" t="s">
-        <v>100</v>
+        <v>520</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>279</v>
+        <v>521</v>
       </c>
       <c r="B126" t="s">
-        <v>356</v>
+        <v>518</v>
       </c>
       <c r="C126" t="s">
-        <v>403</v>
+        <v>551</v>
       </c>
       <c r="D126" t="s">
-        <v>99</v>
+        <v>522</v>
       </c>
       <c r="E126" t="s">
-        <v>100</v>
+        <v>523</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>280</v>
+        <v>524</v>
       </c>
       <c r="B127" t="s">
-        <v>356</v>
+        <v>525</v>
       </c>
       <c r="C127" t="s">
-        <v>403</v>
+        <v>552</v>
       </c>
       <c r="D127" t="s">
-        <v>99</v>
+        <v>526</v>
       </c>
       <c r="E127" t="s">
-        <v>100</v>
+        <v>527</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>528</v>
+      </c>
+      <c r="B128" t="s">
+        <v>525</v>
+      </c>
+      <c r="C128" t="s">
+        <v>553</v>
+      </c>
+      <c r="D128" t="s">
+        <v>529</v>
+      </c>
+      <c r="E128" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>531</v>
+      </c>
+      <c r="B129" t="s">
+        <v>525</v>
+      </c>
+      <c r="C129" t="s">
+        <v>554</v>
+      </c>
+      <c r="D129" t="s">
+        <v>532</v>
+      </c>
+      <c r="E129" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>534</v>
+      </c>
+      <c r="B130" t="s">
+        <v>535</v>
+      </c>
+      <c r="C130" t="s">
+        <v>555</v>
+      </c>
+      <c r="D130" t="s">
+        <v>537</v>
+      </c>
+      <c r="E130" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>538</v>
+      </c>
+      <c r="B131" t="s">
+        <v>535</v>
+      </c>
+      <c r="C131" t="s">
+        <v>556</v>
+      </c>
+      <c r="D131" t="s">
+        <v>539</v>
+      </c>
+      <c r="E131" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>541</v>
+      </c>
+      <c r="B132" t="s">
+        <v>542</v>
+      </c>
+      <c r="C132" t="s">
+        <v>557</v>
+      </c>
+      <c r="D132" t="s">
+        <v>543</v>
+      </c>
+      <c r="E132" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>125</v>
+      </c>
+      <c r="B133" t="s">
+        <v>358</v>
+      </c>
+      <c r="C133" t="s">
+        <v>412</v>
+      </c>
+      <c r="D133" t="s">
+        <v>126</v>
+      </c>
+      <c r="E133" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>128</v>
+      </c>
+      <c r="B134" t="s">
+        <v>358</v>
+      </c>
+      <c r="C134" t="s">
+        <v>413</v>
+      </c>
+      <c r="D134" t="s">
+        <v>129</v>
+      </c>
+      <c r="E134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" t="s">
+        <v>358</v>
+      </c>
+      <c r="C135" t="s">
+        <v>414</v>
+      </c>
+      <c r="D135" t="s">
+        <v>132</v>
+      </c>
+      <c r="E135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>233</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B136" t="s">
         <v>358</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C136" t="s">
         <v>442</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D136" t="s">
         <v>234</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E136" t="s">
         <v>235</v>
       </c>
     </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>325</v>
+      </c>
+      <c r="B137" t="s">
+        <v>374</v>
+      </c>
+      <c r="C137" t="s">
+        <v>470</v>
+      </c>
+      <c r="D137" t="s">
+        <v>326</v>
+      </c>
+      <c r="E137" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>328</v>
+      </c>
+      <c r="B138" t="s">
+        <v>374</v>
+      </c>
+      <c r="C138" t="s">
+        <v>471</v>
+      </c>
+      <c r="D138" t="s">
+        <v>329</v>
+      </c>
+      <c r="E138" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>334</v>
+      </c>
+      <c r="B139" t="s">
+        <v>376</v>
+      </c>
+      <c r="C139" t="s">
+        <v>473</v>
+      </c>
+      <c r="D139" t="s">
+        <v>335</v>
+      </c>
+      <c r="E139" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>337</v>
+      </c>
+      <c r="B140" t="s">
+        <v>377</v>
+      </c>
+      <c r="C140" t="s">
+        <v>486</v>
+      </c>
+      <c r="D140" t="s">
+        <v>338</v>
+      </c>
+      <c r="E140" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>181</v>
+      </c>
+      <c r="B141" t="s">
+        <v>360</v>
+      </c>
+      <c r="C141" t="s">
+        <v>427</v>
+      </c>
+      <c r="D141" t="s">
+        <v>182</v>
+      </c>
+      <c r="E141" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H127" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H128">
-      <sortCondition ref="C2:C127"/>
+  <autoFilter ref="A2:H140" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H141">
+      <sortCondition ref="B2:B140"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR/Lang/PTBR/Game/Obj.xlsx
+++ b/PTBR/Lang/PTBR/Game/Obj.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ADBF9C-4CC7-4CB5-B6C3-4B5DF2DAFCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82BC16E-D69D-4A39-A096-5DA03E372EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="3600" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10755" yWindow="2100" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="580">
   <si>
     <t>id</t>
   </si>
@@ -1697,13 +1697,79 @@
   </si>
   <si>
     <t>Cabocchi</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>EA 23.216</t>
+  </si>
+  <si>
+    <t>sunflower</t>
+  </si>
+  <si>
+    <t>ひまわり</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>tulip</t>
+  </si>
+  <si>
+    <t>チューリップ</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>EA 23.219</t>
+  </si>
+  <si>
+    <t>red pepper</t>
+  </si>
+  <si>
+    <t>トウガラシ</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>EA 23.245</t>
+  </si>
+  <si>
+    <t>bone mound</t>
+  </si>
+  <si>
+    <t>骨塚</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>竜骨</t>
+  </si>
+  <si>
+    <t>girassol</t>
+  </si>
+  <si>
+    <t>túlipa</t>
+  </si>
+  <si>
+    <t>pimenta vermelha</t>
+  </si>
+  <si>
+    <t>monte de ossos</t>
+  </si>
+  <si>
+    <t>osso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2074,23 +2140,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <pane ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C142" sqref="C142:C146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2116,7 +2182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2133,7 +2199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2150,7 +2216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2167,7 +2233,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -2184,7 +2250,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2201,7 +2267,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2218,7 +2284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2235,7 +2301,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2252,7 +2318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -2269,7 +2335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -2286,7 +2352,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -2303,7 +2369,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2320,7 +2386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -2337,7 +2403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -2354,7 +2420,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -2371,7 +2437,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -2388,7 +2454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -2405,7 +2471,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -2422,7 +2488,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -2439,7 +2505,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -2456,7 +2522,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2473,7 +2539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -2490,7 +2556,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -2507,7 +2573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -2524,7 +2590,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -2541,7 +2607,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -2558,7 +2624,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -2575,7 +2641,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -2592,7 +2658,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -2609,7 +2675,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -2626,7 +2692,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2643,7 +2709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>134</v>
       </c>
@@ -2660,7 +2726,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -2677,7 +2743,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>139</v>
       </c>
@@ -2694,7 +2760,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -2711,7 +2777,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -2728,7 +2794,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>145</v>
       </c>
@@ -2745,7 +2811,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -2762,7 +2828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -2779,7 +2845,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>157</v>
       </c>
@@ -2796,7 +2862,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -2813,7 +2879,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>163</v>
       </c>
@@ -2830,7 +2896,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -2847,7 +2913,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>169</v>
       </c>
@@ -2864,7 +2930,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>172</v>
       </c>
@@ -2881,7 +2947,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -2898,7 +2964,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -2915,7 +2981,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -2932,7 +2998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>184</v>
       </c>
@@ -2949,7 +3015,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>187</v>
       </c>
@@ -2966,7 +3032,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>190</v>
       </c>
@@ -2983,7 +3049,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>193</v>
       </c>
@@ -3000,7 +3066,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>196</v>
       </c>
@@ -3017,7 +3083,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>199</v>
       </c>
@@ -3034,7 +3100,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -3051,7 +3117,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>206</v>
       </c>
@@ -3068,7 +3134,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -3085,7 +3151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>209</v>
       </c>
@@ -3102,7 +3168,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>212</v>
       </c>
@@ -3119,7 +3185,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>215</v>
       </c>
@@ -3136,7 +3202,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>218</v>
       </c>
@@ -3153,7 +3219,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>221</v>
       </c>
@@ -3170,7 +3236,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>224</v>
       </c>
@@ -3187,7 +3253,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>227</v>
       </c>
@@ -3204,7 +3270,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -3221,7 +3287,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>236</v>
       </c>
@@ -3238,7 +3304,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -3255,7 +3321,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>239</v>
       </c>
@@ -3272,7 +3338,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -3289,7 +3355,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>241</v>
       </c>
@@ -3306,7 +3372,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>244</v>
       </c>
@@ -3323,7 +3389,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>247</v>
       </c>
@@ -3340,7 +3406,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -3357,7 +3423,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>248</v>
       </c>
@@ -3374,7 +3440,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>251</v>
       </c>
@@ -3391,7 +3457,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>252</v>
       </c>
@@ -3408,7 +3474,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>253</v>
       </c>
@@ -3425,7 +3491,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -3442,7 +3508,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>151</v>
       </c>
@@ -3459,7 +3525,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>65</v>
       </c>
@@ -3476,7 +3542,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>254</v>
       </c>
@@ -3493,7 +3559,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -3510,7 +3576,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>260</v>
       </c>
@@ -3527,7 +3593,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>263</v>
       </c>
@@ -3544,7 +3610,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>266</v>
       </c>
@@ -3561,7 +3627,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>269</v>
       </c>
@@ -3578,7 +3644,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>272</v>
       </c>
@@ -3595,7 +3661,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>275</v>
       </c>
@@ -3612,7 +3678,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>284</v>
       </c>
@@ -3629,7 +3695,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>287</v>
       </c>
@@ -3646,7 +3712,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>288</v>
       </c>
@@ -3663,7 +3729,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>291</v>
       </c>
@@ -3680,7 +3746,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>77</v>
       </c>
@@ -3697,7 +3763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>278</v>
       </c>
@@ -3714,7 +3780,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>279</v>
       </c>
@@ -3731,7 +3797,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>280</v>
       </c>
@@ -3748,7 +3814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>281</v>
       </c>
@@ -3765,7 +3831,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>297</v>
       </c>
@@ -3782,7 +3848,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>300</v>
       </c>
@@ -3799,7 +3865,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>304</v>
       </c>
@@ -3816,7 +3882,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>294</v>
       </c>
@@ -3833,7 +3899,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>307</v>
       </c>
@@ -3850,7 +3916,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>301</v>
       </c>
@@ -3867,7 +3933,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>310</v>
       </c>
@@ -3884,7 +3950,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>313</v>
       </c>
@@ -3901,7 +3967,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>316</v>
       </c>
@@ -3918,7 +3984,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>319</v>
       </c>
@@ -3935,7 +4001,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>322</v>
       </c>
@@ -3952,7 +4018,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>148</v>
       </c>
@@ -3969,7 +4035,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>340</v>
       </c>
@@ -3986,7 +4052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>341</v>
       </c>
@@ -4003,7 +4069,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>344</v>
       </c>
@@ -4020,7 +4086,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>347</v>
       </c>
@@ -4037,7 +4103,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>350</v>
       </c>
@@ -4054,7 +4120,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>493</v>
       </c>
@@ -4071,7 +4137,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>204</v>
       </c>
@@ -4088,7 +4154,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>331</v>
       </c>
@@ -4105,7 +4171,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>498</v>
       </c>
@@ -4122,7 +4188,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>502</v>
       </c>
@@ -4139,7 +4205,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>505</v>
       </c>
@@ -4156,7 +4222,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>509</v>
       </c>
@@ -4173,7 +4239,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>513</v>
       </c>
@@ -4190,7 +4256,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>517</v>
       </c>
@@ -4207,7 +4273,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>521</v>
       </c>
@@ -4224,7 +4290,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>524</v>
       </c>
@@ -4241,7 +4307,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>528</v>
       </c>
@@ -4258,7 +4324,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>531</v>
       </c>
@@ -4275,7 +4341,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>534</v>
       </c>
@@ -4292,7 +4358,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>538</v>
       </c>
@@ -4309,7 +4375,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>541</v>
       </c>
@@ -4326,7 +4392,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>125</v>
       </c>
@@ -4343,7 +4409,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>128</v>
       </c>
@@ -4360,7 +4426,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>131</v>
       </c>
@@ -4377,7 +4443,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>233</v>
       </c>
@@ -4394,7 +4460,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>325</v>
       </c>
@@ -4411,7 +4477,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>328</v>
       </c>
@@ -4428,7 +4494,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>334</v>
       </c>
@@ -4445,7 +4511,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>337</v>
       </c>
@@ -4462,7 +4528,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>181</v>
       </c>
@@ -4477,6 +4543,91 @@
       </c>
       <c r="E141" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>558</v>
+      </c>
+      <c r="B142" t="s">
+        <v>559</v>
+      </c>
+      <c r="C142" t="s">
+        <v>575</v>
+      </c>
+      <c r="D142" t="s">
+        <v>560</v>
+      </c>
+      <c r="E142" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>562</v>
+      </c>
+      <c r="B143" t="s">
+        <v>559</v>
+      </c>
+      <c r="C143" t="s">
+        <v>576</v>
+      </c>
+      <c r="D143" t="s">
+        <v>563</v>
+      </c>
+      <c r="E143" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>565</v>
+      </c>
+      <c r="B144" t="s">
+        <v>566</v>
+      </c>
+      <c r="C144" t="s">
+        <v>577</v>
+      </c>
+      <c r="D144" t="s">
+        <v>567</v>
+      </c>
+      <c r="E144" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>569</v>
+      </c>
+      <c r="B145" t="s">
+        <v>570</v>
+      </c>
+      <c r="C145" t="s">
+        <v>578</v>
+      </c>
+      <c r="D145" t="s">
+        <v>571</v>
+      </c>
+      <c r="E145" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>573</v>
+      </c>
+      <c r="B146" t="s">
+        <v>570</v>
+      </c>
+      <c r="C146" t="s">
+        <v>579</v>
+      </c>
+      <c r="D146" t="s">
+        <v>158</v>
+      </c>
+      <c r="E146" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>

--- a/PTBR/Lang/PTBR/Game/Obj.xlsx
+++ b/PTBR/Lang/PTBR/Game/Obj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7145FFA7-9A80-4F73-BF6B-F9021D740EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D96B89-73FA-4EFF-95B7-B9384FB0E725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2130" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="579">
   <si>
     <t>id</t>
   </si>
@@ -1168,321 +1168,9 @@
     <t>EA 23.107</t>
   </si>
   <si>
-    <t xml:space="preserve">Momiji  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor Azul  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor Amarela  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor Branca  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erva Daninha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cogumelo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafflesia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seixo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristal  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedra  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore de Cogumelos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore de Natal  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cacto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore Palulu  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minério  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minério de Gemas  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lírio-d'Água  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suporte de Parede  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janela  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldura de Parede  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrada  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trilho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abismo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrada de Pedra  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destroço  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trigo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabanete  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repolho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomate  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cenoura  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inhame  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrada Estreita  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedaço  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninho de Pássaro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baga  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grande Pedra  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osso  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abeto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cedro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bétula  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinheiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carvalho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore Queimada  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musgo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbusto de Videira  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore Fóssil Decomposta  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore Fóssil  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grande Árvore Fóssil  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fóssil Decomposto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolardo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore de Mogno  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore de Acácia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toco  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alga  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coral  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salgueiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerejeira  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uva  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monte de Folhas Caídas  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para Teste  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algodão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remanescente  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monte  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arroz  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linha Branca  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruta Arco-Íris  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocha de Sal  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borda  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estalagmite  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore Decomposta  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parede Decomposta  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanchagem  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocha Enorme  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocha de Enxofre  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bambu  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Api  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pasto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Químicos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grama Prateada  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detritos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esteira Transportadora  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fragmentos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bananeira  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laranjeira  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pereira  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grama Vermelha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grama Azul  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grama Roxa  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore de Feywood  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samambaia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Café  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabaco  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 3  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 4  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 7  </t>
-  </si>
-  <si>
     <t>Árvore de Maçã</t>
   </si>
   <si>
-    <t xml:space="preserve">Piso Rachado  </t>
-  </si>
-  <si>
     <t>Árvore de Madeira de Coral</t>
   </si>
   <si>
@@ -1498,9 +1186,6 @@
     <t xml:space="preserve">fish silhouette </t>
   </si>
   <si>
-    <t xml:space="preserve">Silhueta de Peixe    </t>
-  </si>
-  <si>
     <t>Telhado 8</t>
   </si>
   <si>
@@ -1660,42 +1345,6 @@
     <t>カボチ</t>
   </si>
   <si>
-    <t xml:space="preserve">Telhado 10  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grama Verde  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 11  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 12  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 13  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 14  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 15  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 16  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 17  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linha Neon  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recife De Coral  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alga Marinha Profunda  </t>
-  </si>
-  <si>
     <t>Cabocchi</t>
   </si>
   <si>
@@ -1750,19 +1399,367 @@
     <t>竜骨</t>
   </si>
   <si>
-    <t>girassol</t>
-  </si>
-  <si>
-    <t>túlipa</t>
-  </si>
-  <si>
-    <t>pimenta vermelha</t>
-  </si>
-  <si>
     <t>monte de ossos</t>
   </si>
   <si>
-    <t>osso</t>
+    <t>Túlipa</t>
+  </si>
+  <si>
+    <t>Pimenta Vermelha</t>
+  </si>
+  <si>
+    <t>Girassol</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Algodão</t>
+  </si>
+  <si>
+    <t>Alga Marinha Profunda</t>
+  </si>
+  <si>
+    <t>Abeto</t>
+  </si>
+  <si>
+    <t>Abismo</t>
+  </si>
+  <si>
+    <t>Alga</t>
+  </si>
+  <si>
+    <t>Arbusto de Videira</t>
+  </si>
+  <si>
+    <t>Arroz</t>
+  </si>
+  <si>
+    <t>Árvore de Acácia</t>
+  </si>
+  <si>
+    <t>Árvore de Cogumelos</t>
+  </si>
+  <si>
+    <t>Árvore de Feywood</t>
+  </si>
+  <si>
+    <t>Árvore de Mogno</t>
+  </si>
+  <si>
+    <t>Árvore de Natal</t>
+  </si>
+  <si>
+    <t>Árvore Decomposta</t>
+  </si>
+  <si>
+    <t>Árvore Fóssil</t>
+  </si>
+  <si>
+    <t>Árvore Fóssil Decomposta</t>
+  </si>
+  <si>
+    <t>Árvore Palulu</t>
+  </si>
+  <si>
+    <t>Árvore Queimada</t>
+  </si>
+  <si>
+    <t>Baga</t>
+  </si>
+  <si>
+    <t>Bambu</t>
+  </si>
+  <si>
+    <t>Bananeira</t>
+  </si>
+  <si>
+    <t>Bétula</t>
+  </si>
+  <si>
+    <t>Bolardo</t>
+  </si>
+  <si>
+    <t>Borda</t>
+  </si>
+  <si>
+    <t>Cacto</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Carvalho</t>
+  </si>
+  <si>
+    <t>Cedro</t>
+  </si>
+  <si>
+    <t>Cenoura</t>
+  </si>
+  <si>
+    <t>Cerejeira</t>
+  </si>
+  <si>
+    <t>Cogumelo</t>
+  </si>
+  <si>
+    <t>Concha</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Cristal</t>
+  </si>
+  <si>
+    <t>Destroço</t>
+  </si>
+  <si>
+    <t>Detritos</t>
+  </si>
+  <si>
+    <t>Erva Daninha</t>
+  </si>
+  <si>
+    <t>Estalagmite</t>
+  </si>
+  <si>
+    <t>Esteira Transportadora</t>
+  </si>
+  <si>
+    <t>Estrada</t>
+  </si>
+  <si>
+    <t>Estrada de Pedra</t>
+  </si>
+  <si>
+    <t>Estrada Estreita</t>
+  </si>
+  <si>
+    <t>Flor</t>
+  </si>
+  <si>
+    <t>Flor Amarela</t>
+  </si>
+  <si>
+    <t>Flor Azul</t>
+  </si>
+  <si>
+    <t>Flor Branca</t>
+  </si>
+  <si>
+    <t>Fóssil Decomposto</t>
+  </si>
+  <si>
+    <t>Fragmentos</t>
+  </si>
+  <si>
+    <t>Fruta Arco-Íris</t>
+  </si>
+  <si>
+    <t>Grama Azul</t>
+  </si>
+  <si>
+    <t>Grama Prateada</t>
+  </si>
+  <si>
+    <t>Grama Roxa</t>
+  </si>
+  <si>
+    <t>Grama Verde</t>
+  </si>
+  <si>
+    <t>Grama Vermelha</t>
+  </si>
+  <si>
+    <t>Grande Árvore Fóssil</t>
+  </si>
+  <si>
+    <t>Grande Pedra</t>
+  </si>
+  <si>
+    <t>Inhame</t>
+  </si>
+  <si>
+    <t>Janela</t>
+  </si>
+  <si>
+    <t>Laranjeira</t>
+  </si>
+  <si>
+    <t>Linha Branca</t>
+  </si>
+  <si>
+    <t>Linha Neon</t>
+  </si>
+  <si>
+    <t>Lírio-d'Água</t>
+  </si>
+  <si>
+    <t>Milho</t>
+  </si>
+  <si>
+    <t>Minério</t>
+  </si>
+  <si>
+    <t>Minério de Gemas</t>
+  </si>
+  <si>
+    <t>Moldura de Parede</t>
+  </si>
+  <si>
+    <t>Momiji</t>
+  </si>
+  <si>
+    <t>Monte</t>
+  </si>
+  <si>
+    <t>Monte de Folhas Caídas</t>
+  </si>
+  <si>
+    <t>Musgo</t>
+  </si>
+  <si>
+    <t>Ninho de Pássaro</t>
+  </si>
+  <si>
+    <t>Osso</t>
+  </si>
+  <si>
+    <t>Para Teste</t>
+  </si>
+  <si>
+    <t>Parede Decomposta</t>
+  </si>
+  <si>
+    <t>Pasto</t>
+  </si>
+  <si>
+    <t>Pedaço</t>
+  </si>
+  <si>
+    <t>Pedra</t>
+  </si>
+  <si>
+    <t>Pereira</t>
+  </si>
+  <si>
+    <t>Pinheiro</t>
+  </si>
+  <si>
+    <t>Piso Rachado</t>
+  </si>
+  <si>
+    <t>Químicos</t>
+  </si>
+  <si>
+    <t>Rabanete</t>
+  </si>
+  <si>
+    <t>Rafflesia</t>
+  </si>
+  <si>
+    <t>Recife De Coral</t>
+  </si>
+  <si>
+    <t>Remanescente</t>
+  </si>
+  <si>
+    <t>Repolho</t>
+  </si>
+  <si>
+    <t>Rocha de Enxofre</t>
+  </si>
+  <si>
+    <t>Rocha de Sal</t>
+  </si>
+  <si>
+    <t>Rocha Enorme</t>
+  </si>
+  <si>
+    <t>Salgueiro</t>
+  </si>
+  <si>
+    <t>Samambaia</t>
+  </si>
+  <si>
+    <t>Seixo</t>
+  </si>
+  <si>
+    <t>Silhueta de Peixe</t>
+  </si>
+  <si>
+    <t>Suporte de Parede</t>
+  </si>
+  <si>
+    <t>Tabaco</t>
+  </si>
+  <si>
+    <t>Tanchagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado </t>
+  </si>
+  <si>
+    <t>Telhado 10</t>
+  </si>
+  <si>
+    <t>Telhado 11</t>
+  </si>
+  <si>
+    <t>Telhado 12</t>
+  </si>
+  <si>
+    <t>Telhado 13</t>
+  </si>
+  <si>
+    <t>Telhado 14</t>
+  </si>
+  <si>
+    <t>Telhado 15</t>
+  </si>
+  <si>
+    <t>Telhado 16</t>
+  </si>
+  <si>
+    <t>Telhado 17</t>
+  </si>
+  <si>
+    <t>Telhado 2</t>
+  </si>
+  <si>
+    <t>Telhado 3</t>
+  </si>
+  <si>
+    <t>Telhado 4</t>
+  </si>
+  <si>
+    <t>Telhado 5</t>
+  </si>
+  <si>
+    <t>Telhado 6</t>
+  </si>
+  <si>
+    <t>Telhado 7</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>Toco</t>
+  </si>
+  <si>
+    <t>Tomate</t>
+  </si>
+  <si>
+    <t>Trigo</t>
+  </si>
+  <si>
+    <t>Trilho</t>
+  </si>
+  <si>
+    <t>Uva</t>
   </si>
 </sst>
 </file>
@@ -2144,7 +2141,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C142" sqref="C142:C146"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,7 +2187,7 @@
         <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="D3" t="s">
         <v>164</v>
@@ -2207,7 +2204,7 @@
         <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="D4" t="s">
         <v>102</v>
@@ -2224,7 +2221,7 @@
         <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="D5" t="s">
         <v>219</v>
@@ -2235,19 +2232,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
-        <v>535</v>
+        <v>430</v>
       </c>
       <c r="C6" t="s">
-        <v>556</v>
+        <v>464</v>
       </c>
       <c r="D6" t="s">
-        <v>539</v>
+        <v>434</v>
       </c>
       <c r="E6" t="s">
-        <v>540</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2258,7 +2255,7 @@
         <v>361</v>
       </c>
       <c r="C7" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="D7" t="s">
         <v>242</v>
@@ -2275,7 +2272,7 @@
         <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D8" t="s">
         <v>295</v>
@@ -2292,7 +2289,7 @@
         <v>353</v>
       </c>
       <c r="C9" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D9" t="s">
         <v>185</v>
@@ -2309,7 +2306,7 @@
         <v>363</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="D10" t="s">
         <v>255</v>
@@ -2326,7 +2323,7 @@
         <v>353</v>
       </c>
       <c r="C11" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="D11" t="s">
         <v>210</v>
@@ -2343,7 +2340,7 @@
         <v>353</v>
       </c>
       <c r="C12" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -2360,7 +2357,7 @@
         <v>353</v>
       </c>
       <c r="C13" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -2377,7 +2374,7 @@
         <v>353</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="D14" t="s">
         <v>43</v>
@@ -2394,7 +2391,7 @@
         <v>376</v>
       </c>
       <c r="C15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D15" t="s">
         <v>335</v>
@@ -2411,7 +2408,7 @@
         <v>359</v>
       </c>
       <c r="C16" t="s">
-        <v>484</v>
+        <v>381</v>
       </c>
       <c r="D16" t="s">
         <v>149</v>
@@ -2428,7 +2425,7 @@
         <v>377</v>
       </c>
       <c r="C17" t="s">
-        <v>486</v>
+        <v>382</v>
       </c>
       <c r="D17" t="s">
         <v>338</v>
@@ -2445,7 +2442,7 @@
         <v>353</v>
       </c>
       <c r="C18" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D18" t="s">
         <v>207</v>
@@ -2462,7 +2459,7 @@
         <v>353</v>
       </c>
       <c r="C19" t="s">
-        <v>393</v>
+        <v>474</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
@@ -2479,7 +2476,7 @@
         <v>368</v>
       </c>
       <c r="C20" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="D20" t="s">
         <v>273</v>
@@ -2496,7 +2493,7 @@
         <v>353</v>
       </c>
       <c r="C21" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="D21" t="s">
         <v>191</v>
@@ -2513,7 +2510,7 @@
         <v>353</v>
       </c>
       <c r="C22" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="D22" t="s">
         <v>188</v>
@@ -2530,7 +2527,7 @@
         <v>353</v>
       </c>
       <c r="C23" t="s">
-        <v>395</v>
+        <v>478</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
@@ -2547,7 +2544,7 @@
         <v>353</v>
       </c>
       <c r="C24" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="D24" t="s">
         <v>179</v>
@@ -2564,7 +2561,7 @@
         <v>354</v>
       </c>
       <c r="C25" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="D25" t="s">
         <v>152</v>
@@ -2581,7 +2578,7 @@
         <v>356</v>
       </c>
       <c r="C26" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="D26" t="s">
         <v>292</v>
@@ -2598,7 +2595,7 @@
         <v>359</v>
       </c>
       <c r="C27" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="D27" t="s">
         <v>317</v>
@@ -2615,7 +2612,7 @@
         <v>353</v>
       </c>
       <c r="C28" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="D28" t="s">
         <v>170</v>
@@ -2632,7 +2629,7 @@
         <v>353</v>
       </c>
       <c r="C29" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="D29" t="s">
         <v>200</v>
@@ -2649,7 +2646,7 @@
         <v>366</v>
       </c>
       <c r="C30" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="D30" t="s">
         <v>267</v>
@@ -2660,19 +2657,19 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>541</v>
+        <v>436</v>
       </c>
       <c r="B31" t="s">
-        <v>542</v>
+        <v>437</v>
       </c>
       <c r="C31" t="s">
-        <v>557</v>
+        <v>440</v>
       </c>
       <c r="D31" t="s">
-        <v>543</v>
+        <v>438</v>
       </c>
       <c r="E31" t="s">
-        <v>544</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2683,7 +2680,7 @@
         <v>353</v>
       </c>
       <c r="C32" t="s">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
@@ -2700,7 +2697,7 @@
         <v>379</v>
       </c>
       <c r="C33" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D33" t="s">
         <v>345</v>
@@ -2717,7 +2714,7 @@
         <v>353</v>
       </c>
       <c r="C34" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="D34" t="s">
         <v>176</v>
@@ -2734,7 +2731,7 @@
         <v>353</v>
       </c>
       <c r="C35" t="s">
-        <v>422</v>
+        <v>489</v>
       </c>
       <c r="D35" t="s">
         <v>167</v>
@@ -2751,7 +2748,7 @@
         <v>358</v>
       </c>
       <c r="C36" t="s">
-        <v>412</v>
+        <v>490</v>
       </c>
       <c r="D36" t="s">
         <v>126</v>
@@ -2768,7 +2765,7 @@
         <v>353</v>
       </c>
       <c r="C37" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="D37" t="s">
         <v>231</v>
@@ -2785,7 +2782,7 @@
         <v>353</v>
       </c>
       <c r="C38" t="s">
-        <v>387</v>
+        <v>492</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
@@ -2802,7 +2799,7 @@
         <v>353</v>
       </c>
       <c r="C39" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="D39" t="s">
         <v>222</v>
@@ -2819,7 +2816,7 @@
         <v>353</v>
       </c>
       <c r="C40" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="D40" t="s">
         <v>225</v>
@@ -2836,7 +2833,7 @@
         <v>354</v>
       </c>
       <c r="C41" t="s">
-        <v>487</v>
+        <v>383</v>
       </c>
       <c r="D41" t="s">
         <v>49</v>
@@ -2853,7 +2850,7 @@
         <v>353</v>
       </c>
       <c r="C42" t="s">
-        <v>390</v>
+        <v>495</v>
       </c>
       <c r="D42" t="s">
         <v>37</v>
@@ -2870,7 +2867,7 @@
         <v>353</v>
       </c>
       <c r="C43" t="s">
-        <v>406</v>
+        <v>496</v>
       </c>
       <c r="D43" t="s">
         <v>108</v>
@@ -2887,7 +2884,7 @@
         <v>362</v>
       </c>
       <c r="C44" t="s">
-        <v>406</v>
+        <v>496</v>
       </c>
       <c r="D44" t="s">
         <v>108</v>
@@ -2904,7 +2901,7 @@
         <v>357</v>
       </c>
       <c r="C45" t="s">
-        <v>406</v>
+        <v>496</v>
       </c>
       <c r="D45" t="s">
         <v>108</v>
@@ -2921,7 +2918,7 @@
         <v>357</v>
       </c>
       <c r="C46" t="s">
-        <v>406</v>
+        <v>496</v>
       </c>
       <c r="D46" t="s">
         <v>108</v>
@@ -2938,7 +2935,7 @@
         <v>357</v>
       </c>
       <c r="C47" t="s">
-        <v>406</v>
+        <v>496</v>
       </c>
       <c r="D47" t="s">
         <v>108</v>
@@ -2955,7 +2952,7 @@
         <v>357</v>
       </c>
       <c r="C48" t="s">
-        <v>406</v>
+        <v>496</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -2972,7 +2969,7 @@
         <v>373</v>
       </c>
       <c r="C49" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="D49" t="s">
         <v>308</v>
@@ -2989,7 +2986,7 @@
         <v>353</v>
       </c>
       <c r="C50" t="s">
-        <v>386</v>
+        <v>498</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
@@ -3006,7 +3003,7 @@
         <v>353</v>
       </c>
       <c r="C51" t="s">
-        <v>386</v>
+        <v>498</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -3023,7 +3020,7 @@
         <v>367</v>
       </c>
       <c r="C52" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="D52" t="s">
         <v>270</v>
@@ -3040,7 +3037,7 @@
         <v>372</v>
       </c>
       <c r="C53" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="D53" t="s">
         <v>311</v>
@@ -3057,7 +3054,7 @@
         <v>353</v>
       </c>
       <c r="C54" t="s">
-        <v>402</v>
+        <v>501</v>
       </c>
       <c r="D54" t="s">
         <v>81</v>
@@ -3074,7 +3071,7 @@
         <v>353</v>
       </c>
       <c r="C55" t="s">
-        <v>402</v>
+        <v>501</v>
       </c>
       <c r="D55" t="s">
         <v>81</v>
@@ -3091,7 +3088,7 @@
         <v>353</v>
       </c>
       <c r="C56" t="s">
-        <v>405</v>
+        <v>502</v>
       </c>
       <c r="D56" t="s">
         <v>105</v>
@@ -3108,7 +3105,7 @@
         <v>353</v>
       </c>
       <c r="C57" t="s">
-        <v>415</v>
+        <v>503</v>
       </c>
       <c r="D57" t="s">
         <v>137</v>
@@ -3125,7 +3122,7 @@
         <v>353</v>
       </c>
       <c r="C58" t="s">
-        <v>382</v>
+        <v>504</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -3142,7 +3139,7 @@
         <v>353</v>
       </c>
       <c r="C59" t="s">
-        <v>384</v>
+        <v>505</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -3159,7 +3156,7 @@
         <v>353</v>
       </c>
       <c r="C60" t="s">
-        <v>383</v>
+        <v>506</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
@@ -3176,7 +3173,7 @@
         <v>353</v>
       </c>
       <c r="C61" t="s">
-        <v>385</v>
+        <v>507</v>
       </c>
       <c r="D61" t="s">
         <v>21</v>
@@ -3193,7 +3190,7 @@
         <v>378</v>
       </c>
       <c r="C62" t="s">
-        <v>385</v>
+        <v>507</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -3210,7 +3207,7 @@
         <v>353</v>
       </c>
       <c r="C63" t="s">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="D63" t="s">
         <v>197</v>
@@ -3227,7 +3224,7 @@
         <v>372</v>
       </c>
       <c r="C64" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="D64" t="s">
         <v>314</v>
@@ -3244,7 +3241,7 @@
         <v>365</v>
       </c>
       <c r="C65" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="D65" t="s">
         <v>261</v>
@@ -3255,19 +3252,19 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>558</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s">
-        <v>559</v>
+        <v>442</v>
       </c>
       <c r="C66" t="s">
-        <v>575</v>
+        <v>461</v>
       </c>
       <c r="D66" t="s">
-        <v>560</v>
+        <v>443</v>
       </c>
       <c r="E66" t="s">
-        <v>561</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3278,7 +3275,7 @@
         <v>374</v>
       </c>
       <c r="C67" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="D67" t="s">
         <v>329</v>
@@ -3295,7 +3292,7 @@
         <v>371</v>
       </c>
       <c r="C68" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="D68" t="s">
         <v>305</v>
@@ -3312,7 +3309,7 @@
         <v>375</v>
       </c>
       <c r="C69" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="D69" t="s">
         <v>332</v>
@@ -3323,19 +3320,19 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>502</v>
+        <v>397</v>
       </c>
       <c r="B70" t="s">
-        <v>499</v>
+        <v>394</v>
       </c>
       <c r="C70" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="D70" t="s">
-        <v>503</v>
+        <v>398</v>
       </c>
       <c r="E70" t="s">
-        <v>504</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3346,7 +3343,7 @@
         <v>374</v>
       </c>
       <c r="C71" t="s">
-        <v>470</v>
+        <v>515</v>
       </c>
       <c r="D71" t="s">
         <v>326</v>
@@ -3363,7 +3360,7 @@
         <v>353</v>
       </c>
       <c r="C72" t="s">
-        <v>431</v>
+        <v>516</v>
       </c>
       <c r="D72" t="s">
         <v>194</v>
@@ -3380,7 +3377,7 @@
         <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>419</v>
+        <v>517</v>
       </c>
       <c r="D73" t="s">
         <v>155</v>
@@ -3397,7 +3394,7 @@
         <v>358</v>
       </c>
       <c r="C74" t="s">
-        <v>413</v>
+        <v>518</v>
       </c>
       <c r="D74" t="s">
         <v>129</v>
@@ -3414,7 +3411,7 @@
         <v>353</v>
       </c>
       <c r="C75" t="s">
-        <v>400</v>
+        <v>519</v>
       </c>
       <c r="D75" t="s">
         <v>75</v>
@@ -3431,7 +3428,7 @@
         <v>359</v>
       </c>
       <c r="C76" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="D76" t="s">
         <v>320</v>
@@ -3448,7 +3445,7 @@
         <v>364</v>
       </c>
       <c r="C77" t="s">
-        <v>449</v>
+        <v>521</v>
       </c>
       <c r="D77" t="s">
         <v>258</v>
@@ -3459,19 +3456,19 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>531</v>
+        <v>426</v>
       </c>
       <c r="B78" t="s">
-        <v>525</v>
+        <v>420</v>
       </c>
       <c r="C78" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="D78" t="s">
-        <v>532</v>
+        <v>427</v>
       </c>
       <c r="E78" t="s">
-        <v>533</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3482,7 +3479,7 @@
         <v>355</v>
       </c>
       <c r="C79" t="s">
-        <v>398</v>
+        <v>523</v>
       </c>
       <c r="D79" t="s">
         <v>66</v>
@@ -3499,7 +3496,7 @@
         <v>358</v>
       </c>
       <c r="C80" t="s">
-        <v>414</v>
+        <v>524</v>
       </c>
       <c r="D80" t="s">
         <v>132</v>
@@ -3516,7 +3513,7 @@
         <v>353</v>
       </c>
       <c r="C81" t="s">
-        <v>396</v>
+        <v>525</v>
       </c>
       <c r="D81" t="s">
         <v>60</v>
@@ -3533,7 +3530,7 @@
         <v>353</v>
       </c>
       <c r="C82" t="s">
-        <v>397</v>
+        <v>526</v>
       </c>
       <c r="D82" t="s">
         <v>63</v>
@@ -3550,7 +3547,7 @@
         <v>356</v>
       </c>
       <c r="C83" t="s">
-        <v>401</v>
+        <v>527</v>
       </c>
       <c r="D83" t="s">
         <v>78</v>
@@ -3567,7 +3564,7 @@
         <v>356</v>
       </c>
       <c r="C84" t="s">
-        <v>401</v>
+        <v>527</v>
       </c>
       <c r="D84" t="s">
         <v>78</v>
@@ -3584,7 +3581,7 @@
         <v>371</v>
       </c>
       <c r="C85" t="s">
-        <v>401</v>
+        <v>527</v>
       </c>
       <c r="D85" t="s">
         <v>78</v>
@@ -3601,7 +3598,7 @@
         <v>353</v>
       </c>
       <c r="C86" t="s">
-        <v>381</v>
+        <v>528</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -3618,7 +3615,7 @@
         <v>357</v>
       </c>
       <c r="C87" t="s">
-        <v>447</v>
+        <v>529</v>
       </c>
       <c r="D87" t="s">
         <v>249</v>
@@ -3635,7 +3632,7 @@
         <v>353</v>
       </c>
       <c r="C88" t="s">
-        <v>443</v>
+        <v>530</v>
       </c>
       <c r="D88" t="s">
         <v>237</v>
@@ -3646,19 +3643,19 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>569</v>
+        <v>452</v>
       </c>
       <c r="B89" t="s">
-        <v>570</v>
+        <v>453</v>
       </c>
       <c r="C89" t="s">
-        <v>578</v>
+        <v>458</v>
       </c>
       <c r="D89" t="s">
-        <v>571</v>
+        <v>454</v>
       </c>
       <c r="E89" t="s">
-        <v>572</v>
+        <v>455</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3669,7 +3666,7 @@
         <v>360</v>
       </c>
       <c r="C90" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
       <c r="D90" t="s">
         <v>182</v>
@@ -3686,7 +3683,7 @@
         <v>353</v>
       </c>
       <c r="C91" t="s">
-        <v>417</v>
+        <v>532</v>
       </c>
       <c r="D91" t="s">
         <v>146</v>
@@ -3697,19 +3694,19 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>573</v>
+        <v>456</v>
       </c>
       <c r="B92" t="s">
-        <v>570</v>
+        <v>453</v>
       </c>
       <c r="C92" t="s">
-        <v>579</v>
+        <v>533</v>
       </c>
       <c r="D92" t="s">
         <v>158</v>
       </c>
       <c r="E92" t="s">
-        <v>574</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3720,7 +3717,7 @@
         <v>353</v>
       </c>
       <c r="C93" t="s">
-        <v>420</v>
+        <v>533</v>
       </c>
       <c r="D93" t="s">
         <v>158</v>
@@ -3737,7 +3734,7 @@
         <v>353</v>
       </c>
       <c r="C94" t="s">
-        <v>444</v>
+        <v>534</v>
       </c>
       <c r="D94" t="s">
         <v>240</v>
@@ -3754,7 +3751,7 @@
         <v>368</v>
       </c>
       <c r="C95" t="s">
-        <v>455</v>
+        <v>535</v>
       </c>
       <c r="D95" t="s">
         <v>276</v>
@@ -3771,7 +3768,7 @@
         <v>356</v>
       </c>
       <c r="C96" t="s">
-        <v>455</v>
+        <v>535</v>
       </c>
       <c r="D96" t="s">
         <v>276</v>
@@ -3788,7 +3785,7 @@
         <v>370</v>
       </c>
       <c r="C97" t="s">
-        <v>461</v>
+        <v>536</v>
       </c>
       <c r="D97" t="s">
         <v>298</v>
@@ -3805,7 +3802,7 @@
         <v>353</v>
       </c>
       <c r="C98" t="s">
-        <v>416</v>
+        <v>537</v>
       </c>
       <c r="D98" t="s">
         <v>140</v>
@@ -3822,7 +3819,7 @@
         <v>353</v>
       </c>
       <c r="C99" t="s">
-        <v>391</v>
+        <v>538</v>
       </c>
       <c r="D99" t="s">
         <v>40</v>
@@ -3839,7 +3836,7 @@
         <v>359</v>
       </c>
       <c r="C100" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="D100" t="s">
         <v>323</v>
@@ -3850,19 +3847,19 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>565</v>
+        <v>448</v>
       </c>
       <c r="B101" t="s">
-        <v>566</v>
+        <v>449</v>
       </c>
       <c r="C101" t="s">
-        <v>577</v>
+        <v>460</v>
       </c>
       <c r="D101" t="s">
-        <v>567</v>
+        <v>450</v>
       </c>
       <c r="E101" t="s">
-        <v>568</v>
+        <v>451</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3873,7 +3870,7 @@
         <v>353</v>
       </c>
       <c r="C102" t="s">
-        <v>424</v>
+        <v>540</v>
       </c>
       <c r="D102" t="s">
         <v>173</v>
@@ -3890,7 +3887,7 @@
         <v>353</v>
       </c>
       <c r="C103" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="D103" t="s">
         <v>213</v>
@@ -3907,7 +3904,7 @@
         <v>372</v>
       </c>
       <c r="C104" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="D104" t="s">
         <v>302</v>
@@ -3924,7 +3921,7 @@
         <v>353</v>
       </c>
       <c r="C105" t="s">
-        <v>408</v>
+        <v>543</v>
       </c>
       <c r="D105" t="s">
         <v>114</v>
@@ -3941,7 +3938,7 @@
         <v>353</v>
       </c>
       <c r="C106" t="s">
-        <v>388</v>
+        <v>544</v>
       </c>
       <c r="D106" t="s">
         <v>31</v>
@@ -3952,19 +3949,19 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>534</v>
+        <v>429</v>
       </c>
       <c r="B107" t="s">
-        <v>535</v>
+        <v>430</v>
       </c>
       <c r="C107" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="D107" t="s">
-        <v>537</v>
+        <v>432</v>
       </c>
       <c r="E107" t="s">
-        <v>536</v>
+        <v>431</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3975,7 +3972,7 @@
         <v>361</v>
       </c>
       <c r="C108" t="s">
-        <v>446</v>
+        <v>546</v>
       </c>
       <c r="D108" t="s">
         <v>245</v>
@@ -3992,7 +3989,7 @@
         <v>353</v>
       </c>
       <c r="C109" t="s">
-        <v>410</v>
+        <v>547</v>
       </c>
       <c r="D109" t="s">
         <v>120</v>
@@ -4009,7 +4006,7 @@
         <v>356</v>
       </c>
       <c r="C110" t="s">
-        <v>458</v>
+        <v>548</v>
       </c>
       <c r="D110" t="s">
         <v>289</v>
@@ -4026,7 +4023,7 @@
         <v>365</v>
       </c>
       <c r="C111" t="s">
-        <v>451</v>
+        <v>549</v>
       </c>
       <c r="D111" t="s">
         <v>264</v>
@@ -4043,7 +4040,7 @@
         <v>356</v>
       </c>
       <c r="C112" t="s">
-        <v>457</v>
+        <v>550</v>
       </c>
       <c r="D112" t="s">
         <v>285</v>
@@ -4060,7 +4057,7 @@
         <v>353</v>
       </c>
       <c r="C113" t="s">
-        <v>488</v>
+        <v>384</v>
       </c>
       <c r="D113" t="s">
         <v>161</v>
@@ -4077,7 +4074,7 @@
         <v>353</v>
       </c>
       <c r="C114" t="s">
-        <v>440</v>
+        <v>551</v>
       </c>
       <c r="D114" t="s">
         <v>228</v>
@@ -4094,7 +4091,7 @@
         <v>378</v>
       </c>
       <c r="C115" t="s">
-        <v>474</v>
+        <v>552</v>
       </c>
       <c r="D115" t="s">
         <v>342</v>
@@ -4111,7 +4108,7 @@
         <v>353</v>
       </c>
       <c r="C116" t="s">
-        <v>389</v>
+        <v>553</v>
       </c>
       <c r="D116" t="s">
         <v>34</v>
@@ -4125,13 +4122,13 @@
         <v>204</v>
       </c>
       <c r="B117" t="s">
-        <v>489</v>
+        <v>385</v>
       </c>
       <c r="C117" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="D117" t="s">
-        <v>490</v>
+        <v>386</v>
       </c>
       <c r="E117" t="s">
         <v>205</v>
@@ -4145,7 +4142,7 @@
         <v>353</v>
       </c>
       <c r="C118" t="s">
-        <v>399</v>
+        <v>555</v>
       </c>
       <c r="D118" t="s">
         <v>69</v>
@@ -4162,7 +4159,7 @@
         <v>379</v>
       </c>
       <c r="C119" t="s">
-        <v>476</v>
+        <v>556</v>
       </c>
       <c r="D119" t="s">
         <v>348</v>
@@ -4179,7 +4176,7 @@
         <v>356</v>
       </c>
       <c r="C120" t="s">
-        <v>456</v>
+        <v>557</v>
       </c>
       <c r="D120" t="s">
         <v>282</v>
@@ -4196,7 +4193,7 @@
         <v>353</v>
       </c>
       <c r="C121" t="s">
-        <v>477</v>
+        <v>558</v>
       </c>
       <c r="D121" t="s">
         <v>72</v>
@@ -4207,138 +4204,138 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>498</v>
+        <v>393</v>
       </c>
       <c r="B122" t="s">
-        <v>499</v>
+        <v>394</v>
       </c>
       <c r="C122" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="D122" t="s">
-        <v>500</v>
+        <v>395</v>
       </c>
       <c r="E122" t="s">
-        <v>501</v>
+        <v>396</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>505</v>
+        <v>400</v>
       </c>
       <c r="B123" t="s">
-        <v>506</v>
+        <v>401</v>
       </c>
       <c r="C123" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="D123" t="s">
-        <v>507</v>
+        <v>402</v>
       </c>
       <c r="E123" t="s">
-        <v>508</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>509</v>
+        <v>404</v>
       </c>
       <c r="B124" t="s">
-        <v>510</v>
+        <v>405</v>
       </c>
       <c r="C124" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="D124" t="s">
-        <v>511</v>
+        <v>406</v>
       </c>
       <c r="E124" t="s">
-        <v>512</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>513</v>
+        <v>408</v>
       </c>
       <c r="B125" t="s">
-        <v>514</v>
+        <v>409</v>
       </c>
       <c r="C125" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="D125" t="s">
-        <v>515</v>
+        <v>410</v>
       </c>
       <c r="E125" t="s">
-        <v>516</v>
+        <v>411</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>517</v>
+        <v>412</v>
       </c>
       <c r="B126" t="s">
-        <v>518</v>
+        <v>413</v>
       </c>
       <c r="C126" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="D126" t="s">
-        <v>519</v>
+        <v>414</v>
       </c>
       <c r="E126" t="s">
-        <v>520</v>
+        <v>415</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>521</v>
+        <v>416</v>
       </c>
       <c r="B127" t="s">
-        <v>518</v>
+        <v>413</v>
       </c>
       <c r="C127" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="D127" t="s">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="E127" t="s">
-        <v>523</v>
+        <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>524</v>
+        <v>419</v>
       </c>
       <c r="B128" t="s">
-        <v>525</v>
+        <v>420</v>
       </c>
       <c r="C128" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="D128" t="s">
-        <v>526</v>
+        <v>421</v>
       </c>
       <c r="E128" t="s">
-        <v>527</v>
+        <v>422</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>528</v>
+        <v>423</v>
       </c>
       <c r="B129" t="s">
-        <v>525</v>
+        <v>420</v>
       </c>
       <c r="C129" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="D129" t="s">
-        <v>529</v>
+        <v>424</v>
       </c>
       <c r="E129" t="s">
-        <v>530</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4349,7 +4346,7 @@
         <v>353</v>
       </c>
       <c r="C130" t="s">
-        <v>478</v>
+        <v>567</v>
       </c>
       <c r="D130" t="s">
         <v>84</v>
@@ -4366,7 +4363,7 @@
         <v>353</v>
       </c>
       <c r="C131" t="s">
-        <v>479</v>
+        <v>568</v>
       </c>
       <c r="D131" t="s">
         <v>87</v>
@@ -4383,7 +4380,7 @@
         <v>353</v>
       </c>
       <c r="C132" t="s">
-        <v>480</v>
+        <v>569</v>
       </c>
       <c r="D132" t="s">
         <v>90</v>
@@ -4400,7 +4397,7 @@
         <v>353</v>
       </c>
       <c r="C133" t="s">
-        <v>481</v>
+        <v>570</v>
       </c>
       <c r="D133" t="s">
         <v>93</v>
@@ -4417,7 +4414,7 @@
         <v>353</v>
       </c>
       <c r="C134" t="s">
-        <v>482</v>
+        <v>571</v>
       </c>
       <c r="D134" t="s">
         <v>96</v>
@@ -4434,7 +4431,7 @@
         <v>353</v>
       </c>
       <c r="C135" t="s">
-        <v>483</v>
+        <v>572</v>
       </c>
       <c r="D135" t="s">
         <v>96</v>
@@ -4451,7 +4448,7 @@
         <v>380</v>
       </c>
       <c r="C136" t="s">
-        <v>492</v>
+        <v>387</v>
       </c>
       <c r="D136" t="s">
         <v>351</v>
@@ -4462,19 +4459,19 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>493</v>
+        <v>388</v>
       </c>
       <c r="B137" t="s">
-        <v>494</v>
+        <v>389</v>
       </c>
       <c r="C137" t="s">
-        <v>497</v>
+        <v>392</v>
       </c>
       <c r="D137" t="s">
-        <v>495</v>
+        <v>390</v>
       </c>
       <c r="E137" t="s">
-        <v>496</v>
+        <v>391</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4485,7 +4482,7 @@
         <v>353</v>
       </c>
       <c r="C138" t="s">
-        <v>409</v>
+        <v>573</v>
       </c>
       <c r="D138" t="s">
         <v>117</v>
@@ -4502,7 +4499,7 @@
         <v>353</v>
       </c>
       <c r="C139" t="s">
-        <v>436</v>
+        <v>574</v>
       </c>
       <c r="D139" t="s">
         <v>216</v>
@@ -4519,7 +4516,7 @@
         <v>353</v>
       </c>
       <c r="C140" t="s">
-        <v>411</v>
+        <v>575</v>
       </c>
       <c r="D140" t="s">
         <v>123</v>
@@ -4536,7 +4533,7 @@
         <v>353</v>
       </c>
       <c r="C141" t="s">
-        <v>407</v>
+        <v>576</v>
       </c>
       <c r="D141" t="s">
         <v>111</v>
@@ -4553,7 +4550,7 @@
         <v>353</v>
       </c>
       <c r="C142" t="s">
-        <v>403</v>
+        <v>577</v>
       </c>
       <c r="D142" t="s">
         <v>99</v>
@@ -4570,7 +4567,7 @@
         <v>356</v>
       </c>
       <c r="C143" t="s">
-        <v>403</v>
+        <v>577</v>
       </c>
       <c r="D143" t="s">
         <v>99</v>
@@ -4587,7 +4584,7 @@
         <v>356</v>
       </c>
       <c r="C144" t="s">
-        <v>403</v>
+        <v>577</v>
       </c>
       <c r="D144" t="s">
         <v>99</v>
@@ -4598,19 +4595,19 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>562</v>
+        <v>445</v>
       </c>
       <c r="B145" t="s">
-        <v>559</v>
+        <v>442</v>
       </c>
       <c r="C145" t="s">
-        <v>576</v>
+        <v>459</v>
       </c>
       <c r="D145" t="s">
-        <v>563</v>
+        <v>446</v>
       </c>
       <c r="E145" t="s">
-        <v>564</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4621,7 +4618,7 @@
         <v>358</v>
       </c>
       <c r="C146" t="s">
-        <v>442</v>
+        <v>578</v>
       </c>
       <c r="D146" t="s">
         <v>234</v>

--- a/PTBR/Lang/PTBR/Game/Obj.xlsx
+++ b/PTBR/Lang/PTBR/Game/Obj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D96B89-73FA-4EFF-95B7-B9384FB0E725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A285B34A-173E-4341-AD13-053C1F7B10A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2130" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj" sheetId="1" r:id="rId1"/>
@@ -2141,7 +2141,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
